--- a/biology/Médecine/Muscle_auriculaire/Muscle_auriculaire.xlsx
+++ b/biology/Médecine/Muscle_auriculaire/Muscle_auriculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles auriculaires (Musculi auriculares en latin) sont des muscles atrophiques au nombre de trois et situés autour de l'auricule ou pavillon de l'oreille. On distingue ainsi:
 le muscle auriculaire postérieur
@@ -514,7 +526,9 @@
           <t>Muscle auriculaire postérieur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>C'est le plus important des trois. Il est formé de deux ou trois faisceaux.
 Origine: il nait de la base du processus mastoïde atteignant parfois l'os occipital
@@ -547,7 +561,9 @@
           <t>Muscle auriculaire supérieur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mince, triangulaire, il occupe la fosse temporale.
 Insertion crâniale: il nait du bord externe de l'aponévrose épicrânienne
@@ -580,7 +596,9 @@
           <t>Muscle auriculaire antérieur</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Muscle triangulaire, c'est le plus petit des trois.
 Insertion ventrale: il nait du bord externe du muscle occipito-frontal au niveau du processus zygomatique
@@ -613,7 +631,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles auriculaires sont innervés par les rameaux auriculaires du nerf facial.
 </t>
@@ -644,7 +664,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Muscles atrophiés chez l'homme, ils sont dilatateurs de l'entrée du conduit auditif externe mais tout le monde n'arrive pas à les mobiliser.
 </t>
